--- a/data_share/wind_incentives_update_2016_01_22/Data/Output/curated_incentives/incentives_itd.xlsx
+++ b/data_share/wind_incentives_update_2016_01_22/Data/Output/curated_incentives/incentives_itd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>state_abbr</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>exp_date</t>
+  </si>
+  <si>
+    <t>min_size_kw</t>
+  </si>
+  <si>
+    <t>max_size_kw</t>
+  </si>
+  <si>
+    <t>Inf</t>
   </si>
 </sst>
 </file>
@@ -467,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -478,14 +487,15 @@
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -495,26 +505,32 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -525,18 +541,24 @@
         <v>6</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>20000</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="3">
         <v>42356</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
     </row>
